--- a/src/user_credentials.xlsx
+++ b/src/user_credentials.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -523,7 +523,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Lee</t>
+          <t>dddd</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -533,23 +533,23 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>123</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>123</t>
         </is>
       </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr">
         <is>
-          <t>hi</t>
+          <t>123</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -564,45 +564,33 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>podo</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
+          <t>제육</t>
+        </is>
+      </c>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="n">
+        <v>2</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="n">
+        <v>3</v>
+      </c>
+      <c r="O2" t="n">
+        <v>10</v>
+      </c>
+      <c r="P2" t="n">
+        <v>4</v>
       </c>
       <c r="Q2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Lee</t>
+          <t>dddd</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -612,23 +600,23 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>123</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>123</t>
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
-          <t>hi</t>
+          <t>123</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -638,7 +626,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>아침</t>
+          <t>점심</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
